--- a/RMD/input/example.xlsx
+++ b/RMD/input/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah\Documents\DailyReport\RMD\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D77DFC-3667-4398-BF6A-15285C033CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F431CD-2791-444F-9A37-10AC3EE119EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,31 +36,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
+    <t>reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reference</t>
+    <t>content1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参考文献：
 1. 南财快评之全球疫情观察：从塞拉利昂看非洲防控https://k.sina.com.cn/article_1651428902_626ece2602000p2bm.html?from=news&amp;subch=onews
-2. 塞拉利昂总统访华，为何首站选择疾控中心？https://mp.weixin.qq.com/s/lf5e9PfSU7LF-3FiNoi72A 
+2. 塞拉利昂总统访华，为何首站选择疾控中心？https://mp.weixin.qq.com/s/lf5e9PfSU7LF-3FiNoi72A
 3. 工信部：中国呼吸机产能无法满足全球疫情防控需求https://baijiahao.baidu.com/s?id=1663393284129099919&amp;wfr=spider&amp;for=pc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    据《金融时报》报道，塞拉利昂750万人口，已有6人被确诊新冠肺炎，可塞拉利昂只有一台呼吸机。这台唯一的呼吸机在当地的一家私人医院，当地17家公立医院均无呼吸机。
-    造成塞拉利昂防疫形势严峻的原因有很多。主要原因由如下几点：
-1.	塞拉利昂是世界上最不发达国家之一，经济发展水平落后，医疗资源匮乏。
-1991-2001，该国经历了长达十年之久的内战。在2014年联合国开发计划署发布的人类发展指数排名中，塞拉利昂排名倒数第五。其首都弗里敦的面积只有整个国
-家的1/200，却承受着这个全国1/5人口的压力，且失业率高达70%。2017年全国注册医生不到200名。
-2.	2塞拉利昂的公共卫生体系发展不全面。塞拉利昂曾经是埃博拉病毒的重灾区，尽管在对抗埃博拉之后政府成立了公共卫生应急处理中心，但是由于国内无法量产抗疫物资，依然需要依靠外国援助来解决相关问题。
-3.	新冠疫情已经在非洲大陆快速扩散。截至4月5日，非洲已有51个国家报告出现新冠确诊病例，累计确诊人数8,736人。而两周前，非洲累计确诊人数仅为1,654 例。在两周之内，非洲确诊人数就增长了4倍。由于防疫能力和资源有限，塞拉利昂无法同时在控制本土病例的同时兼顾严防输入型病例1，使疫情防控雪上加霜。     
-    我国政府长期以来支持非洲公共卫生事业的发展。早在2016年6月，中非就共同签署了《中华人民共和国商务部和非洲联盟委员会关于开展非洲疾病预防控制中心合作谅解备忘录》。2016年塞拉利昂总统欧内斯特·巴伊·科罗马访问中国时特别到访了中国疾控中心，商议中塞公共卫生技术合作相关事宜2。
-    目前我国国内疫情局势相对稳定，已大规模复工复产，医用防护服、医用防护口罩\面罩、测温仪、呼吸机产能已基本能满足国内需求，企业也正尽力组织扩大出口3。 
-在未来一段时间的抗疫物资援助和贸易上，我国相关产业可更多的将目光放在类似塞拉利昂这样的医疗资源和经济基础更加薄弱的国家。</t>
+    <r>
+      <t xml:space="preserve">   据《金融时报》报道，塞拉利昂750万人口，已有6人被确诊新冠肺炎，可塞拉利昂只有一台呼吸机。这台唯一的呼吸机在当地的一家私人医院，当地17家公立医院均无呼吸机。
+   造成塞拉利昂防疫形势严峻的原因有很多。主要原因由如下几点：
+1. 塞拉利昂是世界上最不发达国家之一，经济发展水平落后，医疗资源匮乏。 1991-2001，该国经历了长达十年之久的内战。在2014年联合国开发计划署发布的人类发展指数排名中，塞拉利昂排名倒数第五。其首都弗里敦的面积只有整个国 家的1/200，却承受着这个全国1/5人口的压力，且失业率高达70%。2017年全国注册医生不到200名。
+2. 塞拉利昂的公共卫生体系发展不全面。塞拉利昂曾经是埃博拉病毒的重灾区，尽管在对抗埃博拉之后政府成立了公共卫生应急处理中心，但是由于国内无法量产抗疫物资，依然需要依靠外国援助来解决相关问题。
+3. 新冠疫情已经在非洲大陆快速扩散。截至4月5日，非洲已有51个国家报告出现新冠确诊病例，累计确诊人数8,736人。而两周前，非洲累计确诊人数仅为1,654 例。在两周之内，非洲确诊人数就增长了4倍。由于防疫能力和资源有限，塞拉利昂无法同时在控制本土病例的同时兼顾严防输入型病例，使疫情防控雪上加霜</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+   我国政府长期以来支持非洲公共卫生事业的发展。早在2016年6月，中非就共同签署了《中华人民共和国商务部和非洲联盟委员会关于开展非洲疾病预防控制中心合作谅解备忘录》。2016年塞拉利昂总统欧内斯特·巴伊·科罗马访问中国时特别到访了中国疾控中心，商议中塞公共卫生技术合作相关事宜</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+   目前我国国内疫情局势相对稳定，已大规模复工复产，医用防护服、医用防护口罩/面罩、测温仪、呼吸机产能已基本能满足国内需求，企业也正尽力组织扩大出口3。在未来一段时间的抗疫物资援助和贸易上，我国相关产业可更多的将目光放在类似塞拉利昂这样的医疗资源和经济基础更加薄弱的国家。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -84,6 +125,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -131,7 +187,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -148,6 +204,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1316,13 +1375,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.265625" style="1"/>
-    <col min="2" max="2" width="147.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="124.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.265625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.265625" style="1"/>
   </cols>
@@ -1343,19 +1402,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="178.9" customHeight="1">
+    <row r="3" spans="1:2" ht="322.89999999999998" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="99.95" customHeight="1">
+    <row r="4" spans="1:2" ht="119.65" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/RMD/input/example.xlsx
+++ b/RMD/input/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah\Documents\DailyReport\RMD\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F431CD-2791-444F-9A37-10AC3EE119EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF008C-4E18-47EF-9EF4-A09131AF920E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,57 +51,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">   据《金融时报》报道，塞拉利昂750万人口，已有6人被确诊新冠肺炎，可塞拉利昂只有一台呼吸机。这台唯一的呼吸机在当地的一家私人医院，当地17家公立医院均无呼吸机。
+    <t xml:space="preserve">   据《金融时报》报道，塞拉利昂750万人口，已有6人被确诊新冠肺炎，可塞拉利昂只有一台呼吸机。这台唯一的呼吸机在当地的一家私人医院，当地17家公立医院均无呼吸机。
    造成塞拉利昂防疫形势严峻的原因有很多。主要原因由如下几点：
 1. 塞拉利昂是世界上最不发达国家之一，经济发展水平落后，医疗资源匮乏。 1991-2001，该国经历了长达十年之久的内战。在2014年联合国开发计划署发布的人类发展指数排名中，塞拉利昂排名倒数第五。其首都弗里敦的面积只有整个国 家的1/200，却承受着这个全国1/5人口的压力，且失业率高达70%。2017年全国注册医生不到200名。
 2. 塞拉利昂的公共卫生体系发展不全面。塞拉利昂曾经是埃博拉病毒的重灾区，尽管在对抗埃博拉之后政府成立了公共卫生应急处理中心，但是由于国内无法量产抗疫物资，依然需要依靠外国援助来解决相关问题。
-3. 新冠疫情已经在非洲大陆快速扩散。截至4月5日，非洲已有51个国家报告出现新冠确诊病例，累计确诊人数8,736人。而两周前，非洲累计确诊人数仅为1,654 例。在两周之内，非洲确诊人数就增长了4倍。由于防疫能力和资源有限，塞拉利昂无法同时在控制本土病例的同时兼顾严防输入型病例，使疫情防控雪上加霜</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。
-   我国政府长期以来支持非洲公共卫生事业的发展。早在2016年6月，中非就共同签署了《中华人民共和国商务部和非洲联盟委员会关于开展非洲疾病预防控制中心合作谅解备忘录》。2016年塞拉利昂总统欧内斯特·巴伊·科罗马访问中国时特别到访了中国疾控中心，商议中塞公共卫生技术合作相关事宜</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。
-   目前我国国内疫情局势相对稳定，已大规模复工复产，医用防护服、医用防护口罩/面罩、测温仪、呼吸机产能已基本能满足国内需求，企业也正尽力组织扩大出口3。在未来一段时间的抗疫物资援助和贸易上，我国相关产业可更多的将目光放在类似塞拉利昂这样的医疗资源和经济基础更加薄弱的国家。</t>
-    </r>
+3. 新冠疫情已经在非洲大陆快速扩散。截至4月5日，非洲已有51个国家报告出现新冠确诊病例，累计确诊人数8,736人。而两周前，非洲累计确诊人数仅为1,654 例。在两周之内，非洲确诊人数就增长了4倍。由于防疫能力和资源有限，塞拉利昂无法同时在控制本土病例的同时兼顾严防输入型病例，使疫情防控雪上加霜$^1$。
+   我国政府长期以来支持非洲公共卫生事业的发展。早在2016年6月，中非就共同签署了《中华人民共和国商务部和非洲联盟委员会关于开展非洲疾病预防控制中心合作谅解备忘录》。2016年塞拉利昂总统欧内斯特·巴伊·科罗马访问中国时特别到访了中国疾控中心，商议中塞公共卫生技术合作相关事宜$^2$。
+   目前我国国内疫情局势相对稳定，已大规模复工复产，医用防护服、医用防护口罩/面罩、测温仪、呼吸机产能已基本能满足国内需求，企业也正尽力组织扩大出口$^3$。在未来一段时间的抗疫物资援助和贸易上，我国相关产业可更多的将目光放在类似塞拉利昂这样的医疗资源和经济基础更加薄弱的国家。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -129,14 +85,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1402,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="322.89999999999998" customHeight="1">
+    <row r="3" spans="1:2" ht="342.4" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
